--- a/DataFiles/question.xlsx
+++ b/DataFiles/question.xlsx
@@ -24,6 +24,33 @@
     <x:t>2개 이상의 프로그램을 주기억장치에 기억시키고 CPU를 번갈아 사용하면서 처리하여 컴퓨터 시스템 자원 활용률을 극대화하기 위한 프로그래밍 기법은?</x:t>
   </x:si>
   <x:si>
+    <x:t>소프트웨어 개발에서 요구상항 분석 (Requirements Analysis)과 거리가 먼 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그림의 Decoder에서 Y₀ = 0, Y1 = 1이 입력되었을 때 “1”을 출력하는 단자는?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>논리 마이크로 연산에 있어서 레지스터 A와 B의 값이 다음과 같이 주어졌을 때 selective-set 연산을 수행하면 어떻게 되는가? (단, A는 프로세서 레지스터이고, B는 논리 오퍼랜드이다.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Which is the design step of database correctly?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 모델에 대한 다음 설명 중 ( ) 안에 들어갈 내용으로 가장 타당한 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채널 대역폭이 150[kHz]이고 S/N비가 15일 때 채널용량 [kbps]은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인터럽트의 종류 중 컴퓨터 자체 내의 기계적인 장애나 오류로 인하여 발생하는 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OMA(Object Management Architecture)레퍼런스 모델은 OMG(Object Management Group)의 활동 방향과 목적에 부합하는 모델이다. 다음 중 OMA 레퍼런스 모델의 구성요소가 아닌 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나의 정보를 여러 개의 반송파로 분할하고, 분할된 반송파 사이의 주파수 간격을 최소화하기 위해 직교 다중화해서 전송하는 통신방식으로, 와이브로 및 디지털 멀티미디어 방송 등에 사용되는 기술은?</x:t>
+  </x:si>
+  <x:si>
     <x:t>관계 데이터베이스의 정규화에 대한 설명으로 옳지 않은 것은?</x:t>
   </x:si>
   <x:si>
@@ -33,319 +60,292 @@
     <x:t>원천부호화(source coding) 방식에 속하지 않는 것은?</x:t>
   </x:si>
   <x:si>
-    <x:t>그림의 Decoder에서 Y₀ = 0, Y1 = 1이 입력되었을 때 “1”을 출력하는 단자는?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소프트웨어 개발에서 요구상항 분석 (Requirements Analysis)과 거리가 먼 것은?</x:t>
+    <x:t>여러 개의 LAB(Logic Array Block)과 연결선인 PLA(Programmable Interconnection Array)로 구성되며, 빠른 선능이나 정확한 타이밍의 예측의 필요로 하는 곳에 사용되는 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소프트웨어 프로젝트 관리를 효과적으로 수행하는데 필요한 3P와 거리가 먼 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주파수 분할 다중화기(FDM)에서 부채널 간의 상호 간섭을 방지하기 위한 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 대역폭이 4kHz이고 16진 PSK를 사용한 경우 데이터 신호속도(kbps)는?</x:t>
   </x:si>
   <x:si>
     <x:t>HDLC 프레임 구성에서 프레임 검사 시퀸스(FCS) 영역의 기능으로 옳은 것은?</x:t>
   </x:si>
   <x:si>
-    <x:t>소프트웨어 프로젝트 관리를 효과적으로 수행하는데 필요한 3P와 거리가 먼 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주파수 분할 다중화기(FDM)에서 부채널 간의 상호 간섭을 방지하기 위한 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 대역폭이 4kHz이고 16진 PSK를 사용한 경우 데이터 신호속도(kbps)는?</x:t>
-  </x:si>
-  <x:si>
     <x:t>전송제어 프로토콜 중 문자 방식 프로토콜에서 전송끝 및 데이더 링크 초기화 부호는?</x:t>
   </x:si>
   <x:si>
-    <x:t>채널 대역폭이 150[kHz]이고 S/N비가 15일 때 채널용량 [kbps]은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OMA(Object Management Architecture)레퍼런스 모델은 OMG(Object Management Group)의 활동 방향과 목적에 부합하는 모델이다. 다음 중 OMA 레퍼런스 모델의 구성요소가 아닌 것은?</x:t>
+    <x:t>현재 헤드의 위치가 50에 있고 트랙 0번 방향으로 이동하며, 요청 대기 열에는 아래와 같은 순서로 들어 있다고 가정할 때 SSTF(Shortest Seek Time First)스케줄링 알고리즘에 의한 헤드의 총 이동 거리는 얼마인가?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정답</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다음 암호화 기법에 대한 설명으로 틀린 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소 명령어 형식에 관한 설명으로 틀린 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순차 파일에 대한 설명으로 옳지 않은 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IEEE 802.5 는 무엇에 대한 표준인가?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소프트웨어 위기 발생요민과 거리가 먼 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분산처리시스템에 대한 설명과 관련 없는 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다음 객체지향 기법에 대한 설명에 해당하는 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양자화 스텝수가 5비트이면 양자화 계단수는?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNIX에서 파일의 사용 허가를 정하는 명령은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다음 그림에서 트리의 차수(degree)는?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명령어 처리를 위한 마이크로 사이클이 아닌 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I/O operation과 관계가 없는 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소프트웨어 재사용에 가장 많이 이용되는 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다른 컴퓨터를 이용하여 어셈블리 언어의 프로그램을 이식(porting)하고자 하는 마이크로프로세서의 기계어로 번역하는 프로그램은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디지털 통신망을 구성하는 디지털 교환기 사이에 클록 주파수의 차이가 생기면 데이터의 손실이 발생할 수 있는데 이를 무엇이라 하는가?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16진수 80H가 들어 있는 8비트 레지스터에서 0, 2, 4번째 비트를 세트(set)하려면 얼마의 값을 OR 연산 하여야 하는가?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병행제어의 목적으로 옳지 않은 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8비트로 된 레지스터에서 2의 보수로 숫자를 표시한다면 이 레지스터로 표시할 수 있는 10진수의 범위는?(단, 첫째 비트는 부호 비트로 0,1일 때 각각 양(+),음(-)을 나타낸다고 가정한다.)</x:t>
   </x:si>
   <x:si>
     <x:t>상대 주소모드를 사용하는 컴퓨터에서 분기 명령어가 저장된 기억장치 주소가 256AH일 때, 명령어에 지정된 변위 값이 -75H인 경우 분기되는 주소의 위치는?(단, 분기명어의 갈이는 3바이트이다.)</x:t>
   </x:si>
   <x:si>
-    <x:t>데이터 모델에 대한 다음 설명 중 ( ) 안에 들어갈 내용으로 가장 타당한 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Which is the design step of database correctly?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인터럽트의 종류 중 컴퓨터 자체 내의 기계적인 장애나 오류로 인하여 발생하는 것은?</x:t>
+    <x:t>인터럽트 백터에 필수적인 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터의 비밀성을 보장하는데 사용될 수 있는 암호화 알고리즘이 아닌 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>블루투스(Bluetooth)의 프로토콜 스택에서 물리 계층을 규정하는 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐싱(Caching)과 원격서비스의 비교에 대한 설명 중 옳지 않은 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동기 고정식 마이크로오퍼레이션(MO) 제어의 특징을 설명한 것으로 틀린 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정형 기술 검토(FTR)의 지침 사항으로 옳은 내용 모두를 나열한 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SQL 구문에서 “having" 절은 반드시 어떤 구문과 사용되어야 하는가?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>객체지향 기법의 캡슐화(Encapsulation)에 대한 설명으로 틀린 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OSI 7계층에서 네트워크 논리적 어드레싱과 라우팅 기능을 수행하는 계층은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다음 SQL 질의를 관계 대수식으로 표현 하면?(단, P는 WHERE 조건절)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부동 소수점인 두 수의 나눗셈을 위한 순서를 올바르게 나열한 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분산시스템의 위상에 따른 분류 방식 중 다음 설명에 해당하는 방식은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소프트웨어 품질 목표 중 하나 이상의 하드웨어 환경에서 운용되기 위해 쉽게 수정될 수 있는 시스템 능력을 의미하는 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다음 초기 자료에 대하여 삽입 정렬 (Insertion Sort)을 이용하여 오름차순 정렬한 경우 1회전후의 결과는?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소프트웨어 재공학 활동 중 기존 소프트웨어의 명세서를 확인하고 소프트웨어의 동적을 이해하고 재공학 대상을 선정하는 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 타이머에서 일정한 시간이 만료된 경우나 오퍼레이터가 콘솔상의 인터 럽트 키를 입력한 경우 발생하는 인터럽트는?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스택의 자료 삭제 알고리즘이다. ( ) 안 내용으로 가장 적합한 것은?(단, Top: 스택포인터, S: 스택의 이름)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스의 특성으로 옳은 내용 모두를 나열한 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNIX 파일 시스템의 블록구조에 포함되지 않은 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다음 중 가, 나에 들어갈 내용으로 옳게 짝지어진 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그림과 같은 메모리 IC에 필요한 핀(pin)의 수는?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DML에 해당하는 SQL 명령으로만 짝지어진 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나의 명령을 처리하는 과정으로 옳게 나열한 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로킹(Locking) 단위에 대한 설명으로 옳은 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1000BaseT 규격에 대한 설명으로 틀린 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두 데이터의 비교 (Compare)를 위한 논리연산은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개체 - 관계 모델에 대한 설명으로 옳지 않은 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소프트웨어 개발 비용 산정 요소로 알맞지 않은 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운영체제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전자계산기구조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자격증번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터통신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제고유번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소프트웨어공학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트랜잭션은 자기의 연산에 대하여 전부 (All)또는 전무(Nothing) 실행만이 존재하며, 일부 실행으로는 트랜잭션의 기능을 가질 수 없다는 트랜잭션의 특성은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병렬컴퓨터에서 버스의 클럭 주기가 80ns이고, 데이터 버스의 폭이 8byte라고 할 때, 전송 할수 있는 데이터의 양은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소프트웨어를 개발하기 위한 비즈니스(업무)를 객체와 속성, 클래스와 멤버, 전체와 부분등으로 나누어서 분석해 내는 기법은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템의 기능을 여러 개의 고유 모듈들로 분할하여 이들 간의 인터페이스를 계층구조로 표현한 도형 또는 도면을 무엇이라 하는가?</x:t>
   </x:si>
   <x:si>
     <x:t>로더의 종류 중 별도의 로더 없이 언어번역 프로그램의 로더의 기능까지 수행하는 방식은?</x:t>
   </x:si>
   <x:si>
+    <x:t>명령을 수행하기 위해 CPU 내의 레지스터와 플래그의 상태 변환을 일으키는 작업은 무엇인가?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다음 트리를 후위 순회 (Post Traversal)할 경우 가장 마지막에 탐색 되는 것은?</x:t>
+  </x:si>
+  <x:si>
     <x:t>소프트웨어 품질 측정에 위해 개발자 관점에서 고려해야 할 항목으로 가장 거리가 먼 것은?</x:t>
   </x:si>
   <x:si>
+    <x:t>HDLC(High-level Data Link Control) 프레임 형식으로 옳은 것은?</x:t>
+  </x:si>
+  <x:si>
     <x:t>DBMS의 필수기능 중 사용자와 데이터베이스 사이의 인터페이스 수단을 제공하는 기능은?</x:t>
   </x:si>
   <x:si>
-    <x:t>명령을 수행하기 위해 CPU 내의 레지스터와 플래그의 상태 변환을 일으키는 작업은 무엇인가?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HDLC(High-level Data Link Control) 프레임 형식으로 옳은 것은?</x:t>
-  </x:si>
-  <x:si>
     <x:t>전송하려는 부호어들이 최소 해밍 거리가 7일 , 수신시 정정할 수 있는 최대 오류의 수는?</x:t>
   </x:si>
   <x:si>
-    <x:t>다음 트리를 후위 순회 (Post Traversal)할 경우 가장 마지막에 탐색 되는 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8비트로 된 레지스터에서 2의 보수로 숫자를 표시한다면 이 레지스터로 표시할 수 있는 10진수의 범위는?(단, 첫째 비트는 부호 비트로 0,1일 때 각각 양(+),음(-)을 나타낸다고 가정한다.)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>논리 마이크로 연산에 있어서 레지스터 A와 B의 값이 다음과 같이 주어졌을 때 selective-set 연산을 수행하면 어떻게 되는가? (단, A는 프로세서 레지스터이고, B는 논리 오퍼랜드이다.)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현재 헤드의 위치가 50에 있고 트랙 0번 방향으로 이동하며, 요청 대기 열에는 아래와 같은 순서로 들어 있다고 가정할 때 SSTF(Shortest Seek Time First)스케줄링 알고리즘에 의한 헤드의 총 이동 거리는 얼마인가?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다른 컴퓨터를 이용하여 어셈블리 언어의 프로그램을 이식(porting)하고자 하는 마이크로프로세서의 기계어로 번역하는 프로그램은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디지털 통신망을 구성하는 디지털 교환기 사이에 클록 주파수의 차이가 생기면 데이터의 손실이 발생할 수 있는데 이를 무엇이라 하는가?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16진수 80H가 들어 있는 8비트 레지스터에서 0, 2, 4번째 비트를 세트(set)하려면 얼마의 값을 OR 연산 하여야 하는가?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다음 SQL 질의를 관계 대수식으로 표현 하면?(단, P는 WHERE 조건절)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SQL 구문에서 “having" 절은 반드시 어떤 구문과 사용되어야 하는가?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동기 고정식 마이크로오퍼레이션(MO) 제어의 특징을 설명한 것으로 틀린 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐싱(Caching)과 원격서비스의 비교에 대한 설명 중 옳지 않은 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>객체지향 기법의 캡슐화(Encapsulation)에 대한 설명으로 틀린 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정형 기술 검토(FTR)의 지침 사항으로 옳은 내용 모두를 나열한 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>블루투스(Bluetooth)의 프로토콜 스택에서 물리 계층을 규정하는 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터의 비밀성을 보장하는데 사용될 수 있는 암호화 알고리즘이 아닌 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OSI 7계층에서 네트워크 논리적 어드레싱과 라우팅 기능을 수행하는 계층은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다음 그림에서 트리의 차수(degree)는?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소 명령어 형식에 관한 설명으로 틀린 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명령어 처리를 위한 마이크로 사이클이 아닌 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I/O operation과 관계가 없는 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분산처리시스템에 대한 설명과 관련 없는 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다음 암호화 기법에 대한 설명으로 틀린 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UNIX에서 파일의 사용 허가를 정하는 명령은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소프트웨어 재사용에 가장 많이 이용되는 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>순차 파일에 대한 설명으로 옳지 않은 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다음 객체지향 기법에 대한 설명에 해당하는 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다음 초기 자료에 대하여 삽입 정렬 (Insertion Sort)을 이용하여 오름차순 정렬한 경우 1회전후의 결과는?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소프트웨어 재공학 활동 중 기존 소프트웨어의 명세서를 확인하고 소프트웨어의 동적을 이해하고 재공학 대상을 선정하는 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스택의 자료 삭제 알고리즘이다. ( ) 안 내용으로 가장 적합한 것은?(단, Top: 스택포인터, S: 스택의 이름)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템 타이머에서 일정한 시간이 만료된 경우나 오퍼레이터가 콘솔상의 인터 럽트 키를 입력한 경우 발생하는 인터럽트는?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소프트웨어 품질 목표 중 하나 이상의 하드웨어 환경에서 운용되기 위해 쉽게 수정될 수 있는 시스템 능력을 의미하는 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인터럽트 백터에 필수적인 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분산시스템의 위상에 따른 분류 방식 중 다음 설명에 해당하는 방식은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부동 소수점인 두 수의 나눗셈을 위한 순서를 올바르게 나열한 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나의 명령을 처리하는 과정으로 옳게 나열한 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스의 특성으로 옳은 내용 모두를 나열한 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1000BaseT 규격에 대한 설명으로 틀린 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그림과 같은 메모리 IC에 필요한 핀(pin)의 수는?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UNIX 파일 시스템의 블록구조에 포함되지 않은 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개체 - 관계 모델에 대한 설명으로 옳지 않은 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로킹(Locking) 단위에 대한 설명으로 옳은 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DML에 해당하는 SQL 명령으로만 짝지어진 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두 데이터의 비교 (Compare)를 위한 논리연산은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다음 중 가, 나에 들어갈 내용으로 옳게 짝지어진 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소프트웨어 개발 비용 산정 요소로 알맞지 않은 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>트랜잭션은 자기의 연산에 대하여 전부 (All)또는 전무(Nothing) 실행만이 존재하며, 일부 실행으로는 트랜잭션의 기능을 가질 수 없다는 트랜잭션의 특성은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소프트웨어를 개발하기 위한 비즈니스(업무)를 객체와 속성, 클래스와 멤버, 전체와 부분등으로 나누어서 분석해 내는 기법은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템의 기능을 여러 개의 고유 모듈들로 분할하여 이들 간의 인터페이스를 계층구조로 표현한 도형 또는 도면을 무엇이라 하는가?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병렬컴퓨터에서 버스의 클럭 주기가 80ns이고, 데이터 버스의 폭이 8byte라고 할 때, 전송 할수 있는 데이터의 양은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양자화 스텝수가 5비트이면 양자화 계단수는?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IEEE 802.5 는 무엇에 대한 표준인가?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소프트웨어 위기 발생요민과 거리가 먼 것은?</x:t>
+    <x:t>데이터 모델링에 있어서 ERD (Entity Relationship Diagram)는 무엇을 나타내고자하는가?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.0.0.0 네트워크 전체에서 마스크 값으로 255.240.0.0를 사용할 경우 유효한 서브네트 ID는?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관계 데이터 모델에서 릴레이션(Relation)에 포함되어 있는 튜플(Tupie)의 수를 무엇이라고 하는가?</x:t>
   </x:si>
   <x:si>
     <x:t>프로세서의 상태정보를 갖고 있는 PCB (Process Control Block)의 내용이 아닌 것은?</x:t>
   </x:si>
   <x:si>
+    <x:t>데이터 변조속도가 3600baud이고 퀴드비트 (Quad bit)를 사용하는 경우 전송속도(bps)는?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세마포어를 사용해서 상호 배제를 구현할 수 있다. 세마포어를 2로 초기화하였다면, 그 의미는 무엇인가?</x:t>
+  </x:si>
+  <x:si>
     <x:t>디렉토리 구조 중 가장 간단한 형태로 같은 디렉토리에 시스템에 보관된 모든 파일 정보를 포함하는 구조는?</x:t>
   </x:si>
   <x:si>
     <x:t>소프트웨어의 문서(document) 표준이 되었을 때, 개발자가 얻는 이득 으로 가장 거리가 먼 것은?</x:t>
   </x:si>
   <x:si>
-    <x:t>데이터 변조속도가 3600baud이고 퀴드비트 (Quad bit)를 사용하는 경우 전송속도(bps)는?</x:t>
-  </x:si>
-  <x:si>
     <x:t>OCOMO(COnstructive COst MOdel) 비용예측 모델에 대한 설명으로 옳지 않은 것은?</x:t>
   </x:si>
   <x:si>
     <x:t>10K 프로그램이 할당될 때 주기억장치 관리기접인 First-fit 방법을 적용할 경우 해당하는 영역은?</x:t>
   </x:si>
   <x:si>
-    <x:t>세마포어를 사용해서 상호 배제를 구현할 수 있다. 세마포어를 2로 초기화하였다면, 그 의미는 무엇인가?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관계 데이터 모델에서 릴레이션(Relation)에 포함되어 있는 튜플(Tupie)의 수를 무엇이라고 하는가?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 모델링에 있어서 ERD (Entity Relationship Diagram)는 무엇을 나타내고자하는가?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10.0.0.0 네트워크 전체에서 마스크 값으로 255.240.0.0를 사용할 경우 유효한 서브네트 ID는?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나의 정보를 여러 개의 반송파로 분할하고, 분할된 반송파 사이의 주파수 간격을 최소화하기 위해 직교 다중화해서 전송하는 통신방식으로, 와이브로 및 디지털 멀티미디어 방송 등에 사용되는 기술은?</x:t>
+    <x:t>HDLC의 ABM(Asynchronous Balanced Mode) 동작모드의 부분집합으로 X.25의 링크 계층에서 사용되는 프로토콜은?</x:t>
   </x:si>
   <x:si>
     <x:t>다음 표는 고정 분할에서의 기억 장치 Fragmentation현상을 보이고 있다. External Fragmentation은 총 얼마인가?</x:t>
   </x:si>
   <x:si>
-    <x:t>HDLC의 ABM(Asynchronous Balanced Mode) 동작모드의 부분집합으로 X.25의 링크 계층에서 사용되는 프로토콜은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여러 개의 LAB(Logic Array Block)과 연결선인 PLA(Programmable Interconnection Array)로 구성되며, 빠른 선능이나 정확한 타이밍의 예측의 필요로 하는 곳에 사용되는 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터통신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제고유번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운영체제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소프트웨어공학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전자계산기구조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병행제어의 목적으로 옳지 않은 것은?</x:t>
-  </x:si>
-  <x:si>
     <x:t>릴레이션의 특징으로 옳지 않은 것은?</x:t>
   </x:si>
   <x:si>
+    <x:t>CASE에 대한 설명으로 옳지 않은 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쉘(shell)의 기능이 아닌 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입·출력 제어장치의 종류가 아닌 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디스크 스케링의 목적과 거리가 먼 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로토콜의 기본 구성 요소가 아닌 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모니터에 대한 설명으로 옳지 않은 것은?</x:t>
+  </x:si>
+  <x:si>
     <x:t>이행적 함수 종속 관계를 의미하는 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쉘(shell)의 기능이 아닌 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입·출력 제어장치의 종류가 아닌 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CASE에 대한 설명으로 옳지 않은 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모니터에 대한 설명으로 옳지 않은 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디스크 스케링의 목적과 거리가 먼 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로토콜의 기본 구성 요소가 아닌 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정답</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -570,7 +570,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -615,7 +614,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -692,7 +690,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -731,7 +728,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -754,7 +750,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -787,7 +782,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -835,7 +829,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -891,7 +884,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -926,7 +918,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -959,7 +950,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -982,7 +972,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1016,7 +1005,7 @@
       </x:fill>
     </x:dxf>
   </x:dxfs>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+  <x:tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <x:tableStyle name="PivotStyleLight16" pivot="1" table="0" count="11">
       <x:tableStyleElement type="headerRow" size="1" dxfId="0"/>
       <x:tableStyleElement type="totalRow" size="1" dxfId="1"/>
@@ -1322,7 +1311,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="J21" activeCellId="0" sqref="J21:J21"/>
+      <x:selection pane="bottomLeft" activeCell="K9" activeCellId="0" sqref="K9:K9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.399999999999999"/>
@@ -1333,22 +1322,22 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="16.75">
       <x:c r="A1" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F1" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
@@ -1359,13 +1348,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D2" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F2" s="5">
         <x:v>1</x:v>
@@ -1379,13 +1368,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D3" s="6">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E3" s="5" t="s">
-        <x:v>32</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F3" s="5">
         <x:v>3</x:v>
@@ -1399,13 +1388,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D4" s="6">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E4" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F4" s="5">
         <x:v>3</x:v>
@@ -1419,13 +1408,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D5" s="6">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E5" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F5" s="5">
         <x:v>4</x:v>
@@ -1439,13 +1428,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D6" s="6">
         <x:v>5</x:v>
       </x:c>
       <x:c r="E6" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F6" s="5">
         <x:v>1</x:v>
@@ -1459,7 +1448,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D7" s="6">
         <x:v>6</x:v>
@@ -1479,13 +1468,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D8" s="6">
         <x:v>7</x:v>
       </x:c>
       <x:c r="E8" s="5" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F8" s="5">
         <x:v>4</x:v>
@@ -1499,13 +1488,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D9" s="6">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E9" s="5" t="s">
-        <x:v>100</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F9" s="5">
         <x:v>4</x:v>
@@ -1519,13 +1508,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D10" s="6">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E10" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F10" s="5">
         <x:v>4</x:v>
@@ -1539,13 +1528,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D11" s="6">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E11" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F11" s="5">
         <x:v>1</x:v>
@@ -1559,13 +1548,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C12" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D12" s="6">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="5" t="s">
-        <x:v>53</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F12" s="5">
         <x:v>3</x:v>
@@ -1579,13 +1568,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D13" s="6">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F13" s="5">
         <x:v>3</x:v>
@@ -1599,13 +1588,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D14" s="6">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E14" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F14" s="5">
         <x:v>1</x:v>
@@ -1619,13 +1608,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D15" s="6">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E15" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F15" s="5">
         <x:v>1</x:v>
@@ -1639,13 +1628,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D16" s="6">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E16" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F16" s="5">
         <x:v>2</x:v>
@@ -1659,13 +1648,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C17" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D17" s="6">
         <x:v>16</x:v>
       </x:c>
       <x:c r="E17" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F17" s="5">
         <x:v>1</x:v>
@@ -1679,13 +1668,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C18" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D18" s="6">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E18" s="5" t="s">
-        <x:v>84</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F18" s="5">
         <x:v>2</x:v>
@@ -1699,13 +1688,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C19" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D19" s="6">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E19" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F19" s="5">
         <x:v>4</x:v>
@@ -1719,13 +1708,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D20" s="6">
         <x:v>19</x:v>
       </x:c>
       <x:c r="E20" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F20" s="5">
         <x:v>2</x:v>
@@ -1739,13 +1728,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C21" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D21" s="6">
         <x:v>20</x:v>
       </x:c>
       <x:c r="E21" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F21" s="5">
         <x:v>2</x:v>
@@ -1759,13 +1748,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C22" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D22" s="6">
         <x:v>21</x:v>
       </x:c>
       <x:c r="E22" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F22" s="5">
         <x:v>1</x:v>
@@ -1779,13 +1768,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C23" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D23" s="6">
         <x:v>22</x:v>
       </x:c>
       <x:c r="E23" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F23" s="5">
         <x:v>4</x:v>
@@ -1799,13 +1788,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C24" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D24" s="6">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E24" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F24" s="5">
         <x:v>3</x:v>
@@ -1819,13 +1808,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C25" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D25" s="6">
         <x:v>24</x:v>
       </x:c>
       <x:c r="E25" s="5" t="s">
-        <x:v>42</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F25" s="5">
         <x:v>4</x:v>
@@ -1839,13 +1828,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C26" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D26" s="6">
         <x:v>25</x:v>
       </x:c>
       <x:c r="E26" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F26" s="5">
         <x:v>4</x:v>
@@ -1859,13 +1848,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C27" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D27" s="6">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E27" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F27" s="5">
         <x:v>3</x:v>
@@ -1879,13 +1868,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C28" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D28" s="6">
         <x:v>27</x:v>
       </x:c>
       <x:c r="E28" s="5" t="s">
-        <x:v>73</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F28" s="5">
         <x:v>3</x:v>
@@ -1899,13 +1888,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C29" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D29" s="6">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E29" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F29" s="5">
         <x:v>4</x:v>
@@ -1919,13 +1908,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C30" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D30" s="6">
         <x:v>29</x:v>
       </x:c>
       <x:c r="E30" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F30" s="5">
         <x:v>3</x:v>
@@ -1939,13 +1928,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C31" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D31" s="6">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E31" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F31" s="5">
         <x:v>2</x:v>
@@ -1959,13 +1948,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C32" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D32" s="6">
         <x:v>31</x:v>
       </x:c>
       <x:c r="E32" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F32" s="5">
         <x:v>4</x:v>
@@ -1979,13 +1968,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C33" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D33" s="6">
         <x:v>32</x:v>
       </x:c>
       <x:c r="E33" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F33" s="5">
         <x:v>1</x:v>
@@ -1999,7 +1988,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C34" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D34" s="6">
         <x:v>33</x:v>
@@ -2019,13 +2008,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C35" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D35" s="6">
         <x:v>34</x:v>
       </x:c>
       <x:c r="E35" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F35" s="5">
         <x:v>2</x:v>
@@ -2039,13 +2028,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C36" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D36" s="6">
         <x:v>35</x:v>
       </x:c>
       <x:c r="E36" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F36" s="5">
         <x:v>4</x:v>
@@ -2059,13 +2048,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C37" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D37" s="6">
         <x:v>36</x:v>
       </x:c>
       <x:c r="E37" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F37" s="5">
         <x:v>3</x:v>
@@ -2079,13 +2068,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C38" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D38" s="6">
         <x:v>37</x:v>
       </x:c>
       <x:c r="E38" s="5" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F38" s="5">
         <x:v>3</x:v>
@@ -2099,13 +2088,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C39" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D39" s="6">
         <x:v>38</x:v>
       </x:c>
       <x:c r="E39" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F39" s="5">
         <x:v>2</x:v>
@@ -2119,13 +2108,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C40" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D40" s="6">
         <x:v>39</x:v>
       </x:c>
       <x:c r="E40" s="5" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F40" s="5">
         <x:v>1</x:v>
@@ -2139,13 +2128,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C41" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D41" s="6">
         <x:v>40</x:v>
       </x:c>
       <x:c r="E41" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F41" s="5">
         <x:v>4</x:v>
@@ -2159,13 +2148,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C42" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D42" s="6">
         <x:v>41</x:v>
       </x:c>
       <x:c r="E42" s="5" t="s">
-        <x:v>35</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F42" s="5">
         <x:v>4</x:v>
@@ -2179,13 +2168,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C43" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D43" s="6">
         <x:v>42</x:v>
       </x:c>
       <x:c r="E43" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F43" s="5">
         <x:v>3</x:v>
@@ -2199,13 +2188,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C44" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D44" s="6">
         <x:v>43</x:v>
       </x:c>
       <x:c r="E44" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F44" s="5">
         <x:v>1</x:v>
@@ -2219,7 +2208,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C45" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D45" s="6">
         <x:v>44</x:v>
@@ -2239,13 +2228,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C46" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D46" s="6">
         <x:v>45</x:v>
       </x:c>
       <x:c r="E46" s="5" t="s">
-        <x:v>82</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F46" s="5">
         <x:v>2</x:v>
@@ -2259,13 +2248,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C47" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D47" s="6">
         <x:v>46</x:v>
       </x:c>
       <x:c r="E47" s="5" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F47" s="5">
         <x:v>3</x:v>
@@ -2279,13 +2268,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C48" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D48" s="6">
         <x:v>47</x:v>
       </x:c>
       <x:c r="E48" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F48" s="5">
         <x:v>1</x:v>
@@ -2299,13 +2288,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C49" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D49" s="6">
         <x:v>48</x:v>
       </x:c>
       <x:c r="E49" s="5" t="s">
-        <x:v>106</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F49" s="5">
         <x:v>4</x:v>
@@ -2319,13 +2308,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C50" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D50" s="6">
         <x:v>49</x:v>
       </x:c>
       <x:c r="E50" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F50" s="5">
         <x:v>3</x:v>
@@ -2339,13 +2328,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C51" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D51" s="6">
         <x:v>50</x:v>
       </x:c>
       <x:c r="E51" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F51" s="5">
         <x:v>1</x:v>
@@ -2359,13 +2348,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C52" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D52" s="6">
         <x:v>51</x:v>
       </x:c>
       <x:c r="E52" s="5" t="s">
-        <x:v>88</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F52" s="5">
         <x:v>4</x:v>
@@ -2379,7 +2368,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C53" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D53" s="6">
         <x:v>52</x:v>
@@ -2399,13 +2388,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C54" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D54" s="6">
         <x:v>53</x:v>
       </x:c>
       <x:c r="E54" s="5" t="s">
-        <x:v>77</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F54" s="5">
         <x:v>4</x:v>
@@ -2419,13 +2408,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C55" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D55" s="6">
         <x:v>54</x:v>
       </x:c>
       <x:c r="E55" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F55" s="5">
         <x:v>4</x:v>
@@ -2439,13 +2428,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C56" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D56" s="6">
         <x:v>55</x:v>
       </x:c>
       <x:c r="E56" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F56" s="5">
         <x:v>2</x:v>
@@ -2459,13 +2448,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C57" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D57" s="6">
         <x:v>56</x:v>
       </x:c>
       <x:c r="E57" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F57" s="5">
         <x:v>3</x:v>
@@ -2479,13 +2468,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C58" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D58" s="6">
         <x:v>57</x:v>
       </x:c>
       <x:c r="E58" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F58" s="5">
         <x:v>3</x:v>
@@ -2499,13 +2488,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C59" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D59" s="6">
         <x:v>58</x:v>
       </x:c>
       <x:c r="E59" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F59" s="5">
         <x:v>4</x:v>
@@ -2519,13 +2508,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C60" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D60" s="6">
         <x:v>59</x:v>
       </x:c>
       <x:c r="E60" s="5" t="s">
-        <x:v>63</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F60" s="5">
         <x:v>1</x:v>
@@ -2539,13 +2528,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C61" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D61" s="6">
         <x:v>60</x:v>
       </x:c>
       <x:c r="E61" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F61" s="5">
         <x:v>2</x:v>
@@ -2559,13 +2548,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C62" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D62" s="6">
         <x:v>61</x:v>
       </x:c>
       <x:c r="E62" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F62" s="5">
         <x:v>3</x:v>
@@ -2579,13 +2568,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C63" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D63" s="6">
         <x:v>62</x:v>
       </x:c>
       <x:c r="E63" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F63" s="5">
         <x:v>4</x:v>
@@ -2599,13 +2588,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C64" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D64" s="6">
         <x:v>63</x:v>
       </x:c>
       <x:c r="E64" s="5" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F64" s="5">
         <x:v>3</x:v>
@@ -2619,13 +2608,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C65" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D65" s="6">
         <x:v>64</x:v>
       </x:c>
       <x:c r="E65" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F65" s="5">
         <x:v>3</x:v>
@@ -2639,13 +2628,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C66" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D66" s="6">
         <x:v>65</x:v>
       </x:c>
       <x:c r="E66" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F66" s="5">
         <x:v>1</x:v>
@@ -2659,13 +2648,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C67" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D67" s="6">
         <x:v>66</x:v>
       </x:c>
       <x:c r="E67" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F67" s="5">
         <x:v>4</x:v>
@@ -2679,13 +2668,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C68" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D68" s="6">
         <x:v>67</x:v>
       </x:c>
       <x:c r="E68" s="5" t="s">
-        <x:v>79</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F68" s="5">
         <x:v>4</x:v>
@@ -2699,13 +2688,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C69" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D69" s="6">
         <x:v>68</x:v>
       </x:c>
       <x:c r="E69" s="5" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F69" s="5">
         <x:v>3</x:v>
@@ -2719,7 +2708,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C70" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D70" s="6">
         <x:v>69</x:v>
@@ -2739,13 +2728,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C71" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D71" s="6">
         <x:v>70</x:v>
       </x:c>
       <x:c r="E71" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F71" s="5">
         <x:v>4</x:v>
@@ -2759,7 +2748,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C72" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D72" s="6">
         <x:v>71</x:v>
@@ -2779,13 +2768,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C73" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D73" s="6">
         <x:v>72</x:v>
       </x:c>
       <x:c r="E73" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F73" s="5">
         <x:v>3</x:v>
@@ -2799,13 +2788,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C74" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D74" s="6">
         <x:v>73</x:v>
       </x:c>
       <x:c r="E74" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F74" s="5">
         <x:v>3</x:v>
@@ -2819,13 +2808,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C75" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D75" s="6">
         <x:v>74</x:v>
       </x:c>
       <x:c r="E75" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F75" s="5">
         <x:v>1</x:v>
@@ -2839,13 +2828,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C76" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D76" s="6">
         <x:v>75</x:v>
       </x:c>
       <x:c r="E76" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F76" s="5">
         <x:v>4</x:v>
@@ -2859,13 +2848,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C77" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D77" s="6">
         <x:v>76</x:v>
       </x:c>
       <x:c r="E77" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F77" s="5">
         <x:v>3</x:v>
@@ -2879,13 +2868,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C78" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D78" s="6">
         <x:v>77</x:v>
       </x:c>
       <x:c r="E78" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F78" s="5">
         <x:v>2</x:v>
@@ -2899,13 +2888,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C79" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D79" s="6">
         <x:v>78</x:v>
       </x:c>
       <x:c r="E79" s="5" t="s">
-        <x:v>72</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F79" s="5">
         <x:v>2</x:v>
@@ -2919,13 +2908,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C80" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D80" s="6">
         <x:v>79</x:v>
       </x:c>
       <x:c r="E80" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F80" s="5">
         <x:v>2</x:v>
@@ -2939,13 +2928,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C81" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D81" s="6">
         <x:v>80</x:v>
       </x:c>
       <x:c r="E81" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F81" s="5">
         <x:v>4</x:v>
@@ -2959,13 +2948,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C82" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D82" s="6">
         <x:v>81</x:v>
       </x:c>
       <x:c r="E82" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F82" s="5">
         <x:v>1</x:v>
@@ -2979,13 +2968,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C83" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D83" s="6">
         <x:v>82</x:v>
       </x:c>
       <x:c r="E83" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F83" s="5">
         <x:v>3</x:v>
@@ -2999,13 +2988,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C84" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D84" s="6">
         <x:v>83</x:v>
       </x:c>
       <x:c r="E84" s="5" t="s">
-        <x:v>86</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F84" s="5">
         <x:v>1</x:v>
@@ -3019,13 +3008,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C85" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D85" s="6">
         <x:v>84</x:v>
       </x:c>
       <x:c r="E85" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F85" s="5">
         <x:v>1</x:v>
@@ -3039,13 +3028,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C86" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D86" s="6">
         <x:v>85</x:v>
       </x:c>
       <x:c r="E86" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F86" s="5">
         <x:v>3</x:v>
@@ -3059,13 +3048,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C87" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D87" s="6">
         <x:v>86</x:v>
       </x:c>
       <x:c r="E87" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F87" s="5">
         <x:v>4</x:v>
@@ -3079,13 +3068,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C88" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D88" s="6">
         <x:v>87</x:v>
       </x:c>
       <x:c r="E88" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F88" s="5">
         <x:v>4</x:v>
@@ -3099,13 +3088,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C89" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D89" s="6">
         <x:v>88</x:v>
       </x:c>
       <x:c r="E89" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F89" s="5">
         <x:v>3</x:v>
@@ -3119,13 +3108,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C90" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D90" s="6">
         <x:v>89</x:v>
       </x:c>
       <x:c r="E90" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F90" s="5">
         <x:v>1</x:v>
@@ -3139,13 +3128,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C91" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D91" s="6">
         <x:v>90</x:v>
       </x:c>
       <x:c r="E91" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F91" s="5">
         <x:v>1</x:v>
@@ -3159,13 +3148,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C92" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D92" s="6">
         <x:v>91</x:v>
       </x:c>
       <x:c r="E92" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F92" s="5">
         <x:v>2</x:v>
@@ -3179,13 +3168,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C93" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D93" s="6">
         <x:v>92</x:v>
       </x:c>
       <x:c r="E93" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F93" s="5">
         <x:v>4</x:v>
@@ -3199,13 +3188,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C94" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D94" s="6">
         <x:v>93</x:v>
       </x:c>
       <x:c r="E94" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F94" s="5">
         <x:v>3</x:v>
@@ -3219,13 +3208,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C95" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D95" s="6">
         <x:v>94</x:v>
       </x:c>
       <x:c r="E95" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F95" s="5">
         <x:v>2</x:v>
@@ -3239,13 +3228,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C96" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D96" s="6">
         <x:v>95</x:v>
       </x:c>
       <x:c r="E96" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F96" s="5">
         <x:v>2</x:v>
@@ -3259,7 +3248,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C97" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D97" s="6">
         <x:v>96</x:v>
@@ -3279,13 +3268,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C98" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D98" s="6">
         <x:v>97</x:v>
       </x:c>
       <x:c r="E98" s="5" t="s">
-        <x:v>61</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F98" s="5">
         <x:v>1</x:v>
@@ -3299,13 +3288,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C99" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D99" s="6">
         <x:v>98</x:v>
       </x:c>
       <x:c r="E99" s="5" t="s">
-        <x:v>89</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F99" s="5">
         <x:v>1</x:v>
@@ -3319,13 +3308,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C100" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D100" s="6">
         <x:v>99</x:v>
       </x:c>
       <x:c r="E100" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F100" s="5">
         <x:v>1</x:v>
@@ -3339,20 +3328,20 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C101" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D101" s="6">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E101" s="5" t="s">
-        <x:v>74</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F101" s="5">
         <x:v>2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/DataFiles/question.xlsx
+++ b/DataFiles/question.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -742,8 +741,8 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -778,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>64</v>
@@ -798,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>64</v>
@@ -818,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>64</v>
@@ -838,7 +837,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>64</v>
@@ -858,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>64</v>
@@ -878,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>64</v>
@@ -898,7 +897,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>64</v>
@@ -918,7 +917,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>64</v>
@@ -938,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>64</v>
@@ -958,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>64</v>
@@ -978,7 +977,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>64</v>
@@ -998,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>64</v>
@@ -1018,7 +1017,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>64</v>
@@ -1038,7 +1037,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>64</v>
@@ -1058,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>64</v>
@@ -1078,7 +1077,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>64</v>
@@ -1098,7 +1097,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>64</v>
@@ -1118,7 +1117,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>64</v>
@@ -1138,7 +1137,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>64</v>
@@ -1158,7 +1157,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>64</v>
@@ -1178,7 +1177,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>59</v>
@@ -1198,7 +1197,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>59</v>
@@ -1218,7 +1217,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>59</v>
@@ -1238,7 +1237,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>59</v>
@@ -1258,7 +1257,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>59</v>
@@ -1278,7 +1277,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>59</v>
@@ -1298,7 +1297,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>59</v>
@@ -1318,7 +1317,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>59</v>
@@ -1338,7 +1337,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>59</v>
@@ -1358,7 +1357,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>59</v>
@@ -1378,7 +1377,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>59</v>
@@ -1398,7 +1397,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>59</v>
@@ -1418,7 +1417,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>59</v>
@@ -1438,7 +1437,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>59</v>
@@ -1458,7 +1457,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>59</v>
@@ -1478,7 +1477,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>59</v>
@@ -1498,7 +1497,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>59</v>
@@ -1518,7 +1517,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>59</v>
@@ -1538,7 +1537,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>59</v>
@@ -1558,7 +1557,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>59</v>
@@ -1578,7 +1577,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>65</v>
@@ -1598,7 +1597,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>65</v>
@@ -1618,7 +1617,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>65</v>
@@ -1638,7 +1637,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>65</v>
@@ -1658,7 +1657,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>65</v>
@@ -1678,7 +1677,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>65</v>
@@ -1698,7 +1697,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>65</v>
@@ -1718,7 +1717,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>65</v>
@@ -1738,7 +1737,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>65</v>
@@ -1758,7 +1757,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>65</v>
@@ -1778,7 +1777,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>65</v>
@@ -1798,7 +1797,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>65</v>
@@ -1818,7 +1817,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>65</v>
@@ -1838,7 +1837,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>65</v>
@@ -1858,7 +1857,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>65</v>
@@ -1878,7 +1877,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>65</v>
@@ -1898,7 +1897,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>65</v>
@@ -1918,7 +1917,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>65</v>
@@ -1938,7 +1937,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>65</v>
@@ -1958,7 +1957,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>65</v>
@@ -1978,7 +1977,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>66</v>
@@ -1998,7 +1997,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>66</v>
@@ -2018,7 +2017,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>66</v>
@@ -2038,7 +2037,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>66</v>
@@ -2058,7 +2057,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>66</v>
@@ -2078,7 +2077,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>66</v>
@@ -2098,7 +2097,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>66</v>
@@ -2118,7 +2117,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>66</v>
@@ -2138,7 +2137,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>66</v>
@@ -2158,7 +2157,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>66</v>
@@ -2178,7 +2177,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>66</v>
@@ -2198,7 +2197,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>66</v>
@@ -2218,7 +2217,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>66</v>
@@ -2238,7 +2237,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>66</v>
@@ -2258,7 +2257,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>66</v>
@@ -2278,7 +2277,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>66</v>
@@ -2298,7 +2297,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>66</v>
@@ -2318,7 +2317,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>66</v>
@@ -2338,7 +2337,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>66</v>
@@ -2358,7 +2357,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>66</v>
@@ -2378,7 +2377,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>60</v>
@@ -2398,7 +2397,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>60</v>
@@ -2418,7 +2417,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>60</v>
@@ -2438,7 +2437,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>60</v>
@@ -2458,7 +2457,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>60</v>
@@ -2478,7 +2477,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>60</v>
@@ -2498,7 +2497,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>60</v>
@@ -2518,7 +2517,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>60</v>
@@ -2538,7 +2537,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>60</v>
@@ -2558,7 +2557,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>60</v>
@@ -2578,7 +2577,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>60</v>
@@ -2598,7 +2597,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>60</v>
@@ -2618,7 +2617,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>60</v>
@@ -2638,7 +2637,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>60</v>
@@ -2658,7 +2657,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>60</v>
@@ -2678,7 +2677,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>60</v>
@@ -2698,7 +2697,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>60</v>
@@ -2718,7 +2717,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>60</v>
@@ -2738,7 +2737,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>60</v>
@@ -2758,7 +2757,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>60</v>

--- a/DataFiles/question.xlsx
+++ b/DataFiles/question.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="111">
   <si>
     <t>사용자의 요구사항을 충분히 부석할 목적으로 시스템의 일부분 또는 시제품을 일시적으로 간결히 구현한 다음 다시 요구사항을 반영하는 과정을 반복하는 점진적 개발 생명주기를 갖는 모델은?</t>
   </si>
@@ -738,11 +738,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M392" sqref="M392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>64</v>
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>64</v>
@@ -817,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>64</v>
@@ -837,7 +837,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>64</v>
@@ -857,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>64</v>
@@ -877,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>64</v>
@@ -897,7 +897,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>64</v>
@@ -917,7 +917,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>64</v>
@@ -937,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>64</v>
@@ -957,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>64</v>
@@ -977,7 +977,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>64</v>
@@ -997,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>64</v>
@@ -1017,7 +1017,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>64</v>
@@ -1037,7 +1037,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>64</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>64</v>
@@ -1077,7 +1077,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>64</v>
@@ -1097,7 +1097,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>64</v>
@@ -1117,7 +1117,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>64</v>
@@ -1137,7 +1137,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>64</v>
@@ -1157,7 +1157,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>64</v>
@@ -1177,7 +1177,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>59</v>
@@ -1197,7 +1197,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>59</v>
@@ -1217,7 +1217,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>59</v>
@@ -1237,7 +1237,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>59</v>
@@ -1257,7 +1257,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>59</v>
@@ -1277,7 +1277,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>59</v>
@@ -1297,7 +1297,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>59</v>
@@ -1317,7 +1317,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>59</v>
@@ -1337,7 +1337,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>59</v>
@@ -1357,7 +1357,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>59</v>
@@ -1377,7 +1377,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>59</v>
@@ -1397,7 +1397,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>59</v>
@@ -1417,7 +1417,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>59</v>
@@ -1437,7 +1437,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>59</v>
@@ -1457,7 +1457,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>59</v>
@@ -1477,7 +1477,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>59</v>
@@ -1497,7 +1497,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>59</v>
@@ -1517,7 +1517,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>59</v>
@@ -1537,7 +1537,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>59</v>
@@ -1557,7 +1557,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>59</v>
@@ -1577,7 +1577,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>65</v>
@@ -1597,7 +1597,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>65</v>
@@ -1617,7 +1617,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>65</v>
@@ -1637,7 +1637,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>65</v>
@@ -1657,7 +1657,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>65</v>
@@ -1677,7 +1677,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>65</v>
@@ -1697,7 +1697,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>65</v>
@@ -1717,7 +1717,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>65</v>
@@ -1737,7 +1737,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>65</v>
@@ -1757,7 +1757,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>65</v>
@@ -1777,7 +1777,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>65</v>
@@ -1797,7 +1797,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>65</v>
@@ -1817,7 +1817,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>65</v>
@@ -1837,7 +1837,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>65</v>
@@ -1857,7 +1857,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>65</v>
@@ -1877,7 +1877,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>65</v>
@@ -1897,7 +1897,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>65</v>
@@ -1917,7 +1917,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>65</v>
@@ -1937,7 +1937,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>65</v>
@@ -1957,7 +1957,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>65</v>
@@ -1977,7 +1977,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>66</v>
@@ -1997,7 +1997,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>66</v>
@@ -2017,7 +2017,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>66</v>
@@ -2037,7 +2037,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>66</v>
@@ -2057,7 +2057,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>66</v>
@@ -2077,7 +2077,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>66</v>
@@ -2097,7 +2097,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>66</v>
@@ -2117,7 +2117,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>66</v>
@@ -2137,7 +2137,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>66</v>
@@ -2157,7 +2157,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>66</v>
@@ -2177,7 +2177,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>66</v>
@@ -2197,7 +2197,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>66</v>
@@ -2217,7 +2217,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>66</v>
@@ -2237,7 +2237,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>66</v>
@@ -2257,7 +2257,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>66</v>
@@ -2277,7 +2277,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>66</v>
@@ -2297,7 +2297,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>66</v>
@@ -2317,7 +2317,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>66</v>
@@ -2337,7 +2337,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>66</v>
@@ -2357,7 +2357,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>66</v>
@@ -2377,7 +2377,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>60</v>
@@ -2397,7 +2397,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>60</v>
@@ -2417,7 +2417,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>60</v>
@@ -2437,7 +2437,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>60</v>
@@ -2457,7 +2457,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>60</v>
@@ -2477,7 +2477,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>60</v>
@@ -2497,7 +2497,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>60</v>
@@ -2517,7 +2517,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>60</v>
@@ -2537,7 +2537,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>60</v>
@@ -2557,7 +2557,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>60</v>
@@ -2577,7 +2577,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>60</v>
@@ -2597,7 +2597,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>60</v>
@@ -2617,7 +2617,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>60</v>
@@ -2637,7 +2637,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>60</v>
@@ -2657,7 +2657,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>60</v>
@@ -2677,7 +2677,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>60</v>
@@ -2697,7 +2697,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>60</v>
@@ -2717,7 +2717,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>60</v>
@@ -2737,7 +2737,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>60</v>
@@ -2757,7 +2757,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>60</v>
@@ -2769,6 +2769,6006 @@
         <v>89</v>
       </c>
       <c r="F101" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="6">
+        <v>101</v>
+      </c>
+      <c r="B102" s="5">
+        <v>12</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F102" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="6">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5">
+        <v>12</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D103" s="5">
+        <v>2</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F103" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="6">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5">
+        <v>12</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" s="5">
+        <v>3</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="6">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5">
+        <v>12</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" s="5">
+        <v>4</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="6">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5">
+        <v>12</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="5">
+        <v>5</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F106" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="6">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5">
+        <v>12</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" s="5">
+        <v>6</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="6">
+        <v>107</v>
+      </c>
+      <c r="B108" s="5">
+        <v>12</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" s="5">
+        <v>7</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F108" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="6">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5">
+        <v>12</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D109" s="5">
+        <v>8</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F109" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="6">
+        <v>109</v>
+      </c>
+      <c r="B110" s="5">
+        <v>12</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" s="5">
+        <v>9</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="6">
+        <v>110</v>
+      </c>
+      <c r="B111" s="5">
+        <v>12</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D111" s="5">
+        <v>10</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="6">
+        <v>111</v>
+      </c>
+      <c r="B112" s="5">
+        <v>12</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" s="5">
+        <v>11</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="6">
+        <v>112</v>
+      </c>
+      <c r="B113" s="5">
+        <v>12</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D113" s="5">
+        <v>12</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F113" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="6">
+        <v>113</v>
+      </c>
+      <c r="B114" s="5">
+        <v>12</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D114" s="5">
+        <v>13</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F114" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="6">
+        <v>114</v>
+      </c>
+      <c r="B115" s="5">
+        <v>12</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" s="5">
+        <v>14</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F115" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="6">
+        <v>115</v>
+      </c>
+      <c r="B116" s="5">
+        <v>12</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" s="5">
+        <v>15</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F116" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="6">
+        <v>116</v>
+      </c>
+      <c r="B117" s="5">
+        <v>12</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D117" s="5">
+        <v>16</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F117" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="6">
+        <v>117</v>
+      </c>
+      <c r="B118" s="5">
+        <v>12</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" s="5">
+        <v>17</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="6">
+        <v>118</v>
+      </c>
+      <c r="B119" s="5">
+        <v>12</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D119" s="5">
+        <v>18</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F119" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="6">
+        <v>119</v>
+      </c>
+      <c r="B120" s="5">
+        <v>12</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D120" s="5">
+        <v>19</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="6">
+        <v>120</v>
+      </c>
+      <c r="B121" s="5">
+        <v>12</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121" s="5">
+        <v>20</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F121" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="6">
+        <v>121</v>
+      </c>
+      <c r="B122" s="5">
+        <v>12</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D122" s="5">
+        <v>21</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F122" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="6">
+        <v>122</v>
+      </c>
+      <c r="B123" s="5">
+        <v>12</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D123" s="5">
+        <v>22</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F123" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="6">
+        <v>123</v>
+      </c>
+      <c r="B124" s="5">
+        <v>12</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D124" s="5">
+        <v>23</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="6">
+        <v>124</v>
+      </c>
+      <c r="B125" s="5">
+        <v>12</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D125" s="5">
+        <v>24</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F125" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="6">
+        <v>125</v>
+      </c>
+      <c r="B126" s="5">
+        <v>12</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D126" s="5">
+        <v>25</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F126" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="6">
+        <v>126</v>
+      </c>
+      <c r="B127" s="5">
+        <v>12</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D127" s="5">
+        <v>26</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="6">
+        <v>127</v>
+      </c>
+      <c r="B128" s="5">
+        <v>12</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D128" s="5">
+        <v>27</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F128" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="6">
+        <v>128</v>
+      </c>
+      <c r="B129" s="5">
+        <v>12</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D129" s="5">
+        <v>28</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="6">
+        <v>129</v>
+      </c>
+      <c r="B130" s="5">
+        <v>12</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D130" s="5">
+        <v>29</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F130" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="6">
+        <v>130</v>
+      </c>
+      <c r="B131" s="5">
+        <v>12</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D131" s="5">
+        <v>30</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F131" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="6">
+        <v>131</v>
+      </c>
+      <c r="B132" s="5">
+        <v>12</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D132" s="5">
+        <v>31</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F132" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="6">
+        <v>132</v>
+      </c>
+      <c r="B133" s="5">
+        <v>12</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D133" s="5">
+        <v>32</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F133" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="6">
+        <v>133</v>
+      </c>
+      <c r="B134" s="5">
+        <v>12</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D134" s="5">
+        <v>33</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F134" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="6">
+        <v>134</v>
+      </c>
+      <c r="B135" s="5">
+        <v>12</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D135" s="5">
+        <v>34</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="6">
+        <v>135</v>
+      </c>
+      <c r="B136" s="5">
+        <v>12</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D136" s="5">
+        <v>35</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F136" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="6">
+        <v>136</v>
+      </c>
+      <c r="B137" s="5">
+        <v>12</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D137" s="5">
+        <v>36</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="6">
+        <v>137</v>
+      </c>
+      <c r="B138" s="5">
+        <v>12</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D138" s="5">
+        <v>37</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F138" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="6">
+        <v>138</v>
+      </c>
+      <c r="B139" s="5">
+        <v>12</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D139" s="5">
+        <v>38</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="6">
+        <v>139</v>
+      </c>
+      <c r="B140" s="5">
+        <v>12</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D140" s="5">
+        <v>39</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F140" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="6">
+        <v>140</v>
+      </c>
+      <c r="B141" s="5">
+        <v>12</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D141" s="5">
+        <v>40</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F141" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="6">
+        <v>141</v>
+      </c>
+      <c r="B142" s="5">
+        <v>12</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D142" s="5">
+        <v>41</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F142" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="6">
+        <v>142</v>
+      </c>
+      <c r="B143" s="5">
+        <v>12</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D143" s="5">
+        <v>42</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F143" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="6">
+        <v>143</v>
+      </c>
+      <c r="B144" s="5">
+        <v>12</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D144" s="5">
+        <v>43</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F144" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="6">
+        <v>144</v>
+      </c>
+      <c r="B145" s="5">
+        <v>12</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D145" s="5">
+        <v>44</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F145" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="6">
+        <v>145</v>
+      </c>
+      <c r="B146" s="5">
+        <v>12</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D146" s="5">
+        <v>45</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F146" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="6">
+        <v>146</v>
+      </c>
+      <c r="B147" s="5">
+        <v>12</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D147" s="5">
+        <v>46</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F147" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="6">
+        <v>147</v>
+      </c>
+      <c r="B148" s="5">
+        <v>12</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D148" s="5">
+        <v>47</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F148" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="6">
+        <v>148</v>
+      </c>
+      <c r="B149" s="5">
+        <v>12</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D149" s="5">
+        <v>48</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F149" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="6">
+        <v>149</v>
+      </c>
+      <c r="B150" s="5">
+        <v>12</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D150" s="5">
+        <v>49</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F150" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="6">
+        <v>150</v>
+      </c>
+      <c r="B151" s="5">
+        <v>12</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D151" s="5">
+        <v>50</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F151" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="6">
+        <v>151</v>
+      </c>
+      <c r="B152" s="5">
+        <v>12</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D152" s="5">
+        <v>51</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F152" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="6">
+        <v>152</v>
+      </c>
+      <c r="B153" s="5">
+        <v>12</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D153" s="5">
+        <v>52</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F153" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="6">
+        <v>153</v>
+      </c>
+      <c r="B154" s="5">
+        <v>12</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D154" s="5">
+        <v>53</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="6">
+        <v>154</v>
+      </c>
+      <c r="B155" s="5">
+        <v>12</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D155" s="5">
+        <v>54</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F155" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="6">
+        <v>155</v>
+      </c>
+      <c r="B156" s="5">
+        <v>12</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D156" s="5">
+        <v>55</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F156" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="6">
+        <v>156</v>
+      </c>
+      <c r="B157" s="5">
+        <v>12</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D157" s="5">
+        <v>56</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F157" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="6">
+        <v>157</v>
+      </c>
+      <c r="B158" s="5">
+        <v>12</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D158" s="5">
+        <v>57</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F158" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="6">
+        <v>158</v>
+      </c>
+      <c r="B159" s="5">
+        <v>12</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D159" s="5">
+        <v>58</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F159" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="6">
+        <v>159</v>
+      </c>
+      <c r="B160" s="5">
+        <v>12</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D160" s="5">
+        <v>59</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F160" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="6">
+        <v>160</v>
+      </c>
+      <c r="B161" s="5">
+        <v>12</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D161" s="5">
+        <v>60</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F161" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="6">
+        <v>161</v>
+      </c>
+      <c r="B162" s="5">
+        <v>12</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D162" s="5">
+        <v>61</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F162" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="6">
+        <v>162</v>
+      </c>
+      <c r="B163" s="5">
+        <v>12</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D163" s="5">
+        <v>62</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F163" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="6">
+        <v>163</v>
+      </c>
+      <c r="B164" s="5">
+        <v>12</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D164" s="5">
+        <v>63</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F164" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="6">
+        <v>164</v>
+      </c>
+      <c r="B165" s="5">
+        <v>12</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D165" s="5">
+        <v>64</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="6">
+        <v>165</v>
+      </c>
+      <c r="B166" s="5">
+        <v>12</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D166" s="5">
+        <v>65</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F166" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="6">
+        <v>166</v>
+      </c>
+      <c r="B167" s="5">
+        <v>12</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D167" s="5">
+        <v>66</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F167" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="6">
+        <v>167</v>
+      </c>
+      <c r="B168" s="5">
+        <v>12</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D168" s="5">
+        <v>67</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F168" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="6">
+        <v>168</v>
+      </c>
+      <c r="B169" s="5">
+        <v>12</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D169" s="5">
+        <v>68</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F169" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="6">
+        <v>169</v>
+      </c>
+      <c r="B170" s="5">
+        <v>12</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D170" s="5">
+        <v>69</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F170" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="6">
+        <v>170</v>
+      </c>
+      <c r="B171" s="5">
+        <v>12</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D171" s="5">
+        <v>70</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F171" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="6">
+        <v>171</v>
+      </c>
+      <c r="B172" s="5">
+        <v>12</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D172" s="5">
+        <v>71</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F172" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="6">
+        <v>172</v>
+      </c>
+      <c r="B173" s="5">
+        <v>12</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D173" s="5">
+        <v>72</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="6">
+        <v>173</v>
+      </c>
+      <c r="B174" s="5">
+        <v>12</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D174" s="5">
+        <v>73</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F174" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="6">
+        <v>174</v>
+      </c>
+      <c r="B175" s="5">
+        <v>12</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D175" s="5">
+        <v>74</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F175" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="6">
+        <v>175</v>
+      </c>
+      <c r="B176" s="5">
+        <v>12</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D176" s="5">
+        <v>75</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F176" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="6">
+        <v>176</v>
+      </c>
+      <c r="B177" s="5">
+        <v>12</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D177" s="5">
+        <v>76</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F177" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="6">
+        <v>177</v>
+      </c>
+      <c r="B178" s="5">
+        <v>12</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D178" s="5">
+        <v>77</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F178" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="6">
+        <v>178</v>
+      </c>
+      <c r="B179" s="5">
+        <v>12</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D179" s="5">
+        <v>78</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F179" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="6">
+        <v>179</v>
+      </c>
+      <c r="B180" s="5">
+        <v>12</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D180" s="5">
+        <v>79</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F180" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="6">
+        <v>180</v>
+      </c>
+      <c r="B181" s="5">
+        <v>12</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D181" s="5">
+        <v>80</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F181" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="6">
+        <v>181</v>
+      </c>
+      <c r="B182" s="5">
+        <v>12</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D182" s="5">
+        <v>81</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F182" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="6">
+        <v>182</v>
+      </c>
+      <c r="B183" s="5">
+        <v>12</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D183" s="5">
+        <v>82</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F183" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="6">
+        <v>183</v>
+      </c>
+      <c r="B184" s="5">
+        <v>12</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D184" s="5">
+        <v>83</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="6">
+        <v>184</v>
+      </c>
+      <c r="B185" s="5">
+        <v>12</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D185" s="5">
+        <v>84</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="6">
+        <v>185</v>
+      </c>
+      <c r="B186" s="5">
+        <v>12</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D186" s="5">
+        <v>85</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F186" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="6">
+        <v>186</v>
+      </c>
+      <c r="B187" s="5">
+        <v>12</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D187" s="5">
+        <v>86</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F187" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="6">
+        <v>187</v>
+      </c>
+      <c r="B188" s="5">
+        <v>12</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D188" s="5">
+        <v>87</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F188" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="6">
+        <v>188</v>
+      </c>
+      <c r="B189" s="5">
+        <v>12</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D189" s="5">
+        <v>88</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F189" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="6">
+        <v>189</v>
+      </c>
+      <c r="B190" s="5">
+        <v>12</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D190" s="5">
+        <v>89</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="6">
+        <v>190</v>
+      </c>
+      <c r="B191" s="5">
+        <v>12</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D191" s="5">
+        <v>90</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F191" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="6">
+        <v>191</v>
+      </c>
+      <c r="B192" s="5">
+        <v>12</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D192" s="5">
+        <v>91</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F192" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="6">
+        <v>192</v>
+      </c>
+      <c r="B193" s="5">
+        <v>12</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D193" s="5">
+        <v>92</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="6">
+        <v>193</v>
+      </c>
+      <c r="B194" s="5">
+        <v>12</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D194" s="5">
+        <v>93</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F194" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="6">
+        <v>194</v>
+      </c>
+      <c r="B195" s="5">
+        <v>12</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D195" s="5">
+        <v>94</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F195" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="6">
+        <v>195</v>
+      </c>
+      <c r="B196" s="5">
+        <v>12</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D196" s="5">
+        <v>95</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F196" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="6">
+        <v>196</v>
+      </c>
+      <c r="B197" s="5">
+        <v>12</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D197" s="5">
+        <v>96</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F197" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="6">
+        <v>197</v>
+      </c>
+      <c r="B198" s="5">
+        <v>12</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D198" s="5">
+        <v>97</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F198" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="6">
+        <v>198</v>
+      </c>
+      <c r="B199" s="5">
+        <v>12</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D199" s="5">
+        <v>98</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F199" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="6">
+        <v>199</v>
+      </c>
+      <c r="B200" s="5">
+        <v>12</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D200" s="5">
+        <v>99</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F200" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="6">
+        <v>200</v>
+      </c>
+      <c r="B201" s="5">
+        <v>12</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D201" s="5">
+        <v>100</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F201" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="6">
+        <v>201</v>
+      </c>
+      <c r="B202" s="5">
+        <v>11</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D202" s="5">
+        <v>1</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F202" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="6">
+        <v>202</v>
+      </c>
+      <c r="B203" s="5">
+        <v>11</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D203" s="5">
+        <v>2</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F203" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="6">
+        <v>203</v>
+      </c>
+      <c r="B204" s="5">
+        <v>11</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D204" s="5">
+        <v>3</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F204" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="6">
+        <v>204</v>
+      </c>
+      <c r="B205" s="5">
+        <v>11</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D205" s="5">
+        <v>4</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F205" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="6">
+        <v>205</v>
+      </c>
+      <c r="B206" s="5">
+        <v>11</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D206" s="5">
+        <v>5</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F206" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="6">
+        <v>206</v>
+      </c>
+      <c r="B207" s="5">
+        <v>11</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D207" s="5">
+        <v>6</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F207" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="6">
+        <v>207</v>
+      </c>
+      <c r="B208" s="5">
+        <v>11</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D208" s="5">
+        <v>7</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F208" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="6">
+        <v>208</v>
+      </c>
+      <c r="B209" s="5">
+        <v>11</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D209" s="5">
+        <v>8</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F209" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="6">
+        <v>209</v>
+      </c>
+      <c r="B210" s="5">
+        <v>11</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D210" s="5">
+        <v>9</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F210" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="6">
+        <v>210</v>
+      </c>
+      <c r="B211" s="5">
+        <v>11</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D211" s="5">
+        <v>10</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F211" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="6">
+        <v>211</v>
+      </c>
+      <c r="B212" s="5">
+        <v>11</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D212" s="5">
+        <v>11</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F212" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="6">
+        <v>212</v>
+      </c>
+      <c r="B213" s="5">
+        <v>11</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D213" s="5">
+        <v>12</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F213" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="6">
+        <v>213</v>
+      </c>
+      <c r="B214" s="5">
+        <v>11</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D214" s="5">
+        <v>13</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F214" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="6">
+        <v>214</v>
+      </c>
+      <c r="B215" s="5">
+        <v>11</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D215" s="5">
+        <v>14</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F215" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="6">
+        <v>215</v>
+      </c>
+      <c r="B216" s="5">
+        <v>11</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D216" s="5">
+        <v>15</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F216" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="6">
+        <v>216</v>
+      </c>
+      <c r="B217" s="5">
+        <v>11</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D217" s="5">
+        <v>16</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F217" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="6">
+        <v>217</v>
+      </c>
+      <c r="B218" s="5">
+        <v>11</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D218" s="5">
+        <v>17</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F218" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="6">
+        <v>218</v>
+      </c>
+      <c r="B219" s="5">
+        <v>11</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D219" s="5">
+        <v>18</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F219" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="6">
+        <v>219</v>
+      </c>
+      <c r="B220" s="5">
+        <v>11</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D220" s="5">
+        <v>19</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F220" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="6">
+        <v>220</v>
+      </c>
+      <c r="B221" s="5">
+        <v>11</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D221" s="5">
+        <v>20</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F221" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="6">
+        <v>221</v>
+      </c>
+      <c r="B222" s="5">
+        <v>11</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D222" s="5">
+        <v>21</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F222" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="6">
+        <v>222</v>
+      </c>
+      <c r="B223" s="5">
+        <v>11</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D223" s="5">
+        <v>22</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F223" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="6">
+        <v>223</v>
+      </c>
+      <c r="B224" s="5">
+        <v>11</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D224" s="5">
+        <v>23</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F224" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="6">
+        <v>224</v>
+      </c>
+      <c r="B225" s="5">
+        <v>11</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D225" s="5">
+        <v>24</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F225" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="6">
+        <v>225</v>
+      </c>
+      <c r="B226" s="5">
+        <v>11</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D226" s="5">
+        <v>25</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F226" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="6">
+        <v>226</v>
+      </c>
+      <c r="B227" s="5">
+        <v>11</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D227" s="5">
+        <v>26</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F227" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="6">
+        <v>227</v>
+      </c>
+      <c r="B228" s="5">
+        <v>11</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D228" s="5">
+        <v>27</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F228" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="6">
+        <v>228</v>
+      </c>
+      <c r="B229" s="5">
+        <v>11</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D229" s="5">
+        <v>28</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F229" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="6">
+        <v>229</v>
+      </c>
+      <c r="B230" s="5">
+        <v>11</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D230" s="5">
+        <v>29</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F230" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="6">
+        <v>230</v>
+      </c>
+      <c r="B231" s="5">
+        <v>11</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D231" s="5">
+        <v>30</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F231" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="6">
+        <v>231</v>
+      </c>
+      <c r="B232" s="5">
+        <v>11</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D232" s="5">
+        <v>31</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F232" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="6">
+        <v>232</v>
+      </c>
+      <c r="B233" s="5">
+        <v>11</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D233" s="5">
+        <v>32</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F233" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="6">
+        <v>233</v>
+      </c>
+      <c r="B234" s="5">
+        <v>11</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D234" s="5">
+        <v>33</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F234" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="6">
+        <v>234</v>
+      </c>
+      <c r="B235" s="5">
+        <v>11</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D235" s="5">
+        <v>34</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F235" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="6">
+        <v>235</v>
+      </c>
+      <c r="B236" s="5">
+        <v>11</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D236" s="5">
+        <v>35</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F236" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="6">
+        <v>236</v>
+      </c>
+      <c r="B237" s="5">
+        <v>11</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D237" s="5">
+        <v>36</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F237" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="6">
+        <v>237</v>
+      </c>
+      <c r="B238" s="5">
+        <v>11</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D238" s="5">
+        <v>37</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F238" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="6">
+        <v>238</v>
+      </c>
+      <c r="B239" s="5">
+        <v>11</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D239" s="5">
+        <v>38</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F239" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="6">
+        <v>239</v>
+      </c>
+      <c r="B240" s="5">
+        <v>11</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D240" s="5">
+        <v>39</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F240" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" s="6">
+        <v>240</v>
+      </c>
+      <c r="B241" s="5">
+        <v>11</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D241" s="5">
+        <v>40</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F241" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="6">
+        <v>241</v>
+      </c>
+      <c r="B242" s="5">
+        <v>11</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D242" s="5">
+        <v>41</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F242" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="6">
+        <v>242</v>
+      </c>
+      <c r="B243" s="5">
+        <v>11</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D243" s="5">
+        <v>42</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F243" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="6">
+        <v>243</v>
+      </c>
+      <c r="B244" s="5">
+        <v>11</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D244" s="5">
+        <v>43</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F244" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="6">
+        <v>244</v>
+      </c>
+      <c r="B245" s="5">
+        <v>11</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D245" s="5">
+        <v>44</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F245" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="6">
+        <v>245</v>
+      </c>
+      <c r="B246" s="5">
+        <v>11</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D246" s="5">
+        <v>45</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F246" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="6">
+        <v>246</v>
+      </c>
+      <c r="B247" s="5">
+        <v>11</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D247" s="5">
+        <v>46</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F247" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="6">
+        <v>247</v>
+      </c>
+      <c r="B248" s="5">
+        <v>11</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D248" s="5">
+        <v>47</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F248" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="6">
+        <v>248</v>
+      </c>
+      <c r="B249" s="5">
+        <v>11</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D249" s="5">
+        <v>48</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F249" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" s="6">
+        <v>249</v>
+      </c>
+      <c r="B250" s="5">
+        <v>11</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D250" s="5">
+        <v>49</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F250" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" s="6">
+        <v>250</v>
+      </c>
+      <c r="B251" s="5">
+        <v>11</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D251" s="5">
+        <v>50</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F251" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="6">
+        <v>251</v>
+      </c>
+      <c r="B252" s="5">
+        <v>11</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D252" s="5">
+        <v>51</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F252" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="6">
+        <v>252</v>
+      </c>
+      <c r="B253" s="5">
+        <v>11</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D253" s="5">
+        <v>52</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F253" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="6">
+        <v>253</v>
+      </c>
+      <c r="B254" s="5">
+        <v>11</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D254" s="5">
+        <v>53</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F254" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="6">
+        <v>254</v>
+      </c>
+      <c r="B255" s="5">
+        <v>11</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D255" s="5">
+        <v>54</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F255" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" s="6">
+        <v>255</v>
+      </c>
+      <c r="B256" s="5">
+        <v>11</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D256" s="5">
+        <v>55</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F256" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" s="6">
+        <v>256</v>
+      </c>
+      <c r="B257" s="5">
+        <v>11</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D257" s="5">
+        <v>56</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F257" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="6">
+        <v>257</v>
+      </c>
+      <c r="B258" s="5">
+        <v>11</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D258" s="5">
+        <v>57</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F258" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="6">
+        <v>258</v>
+      </c>
+      <c r="B259" s="5">
+        <v>11</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D259" s="5">
+        <v>58</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F259" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="6">
+        <v>259</v>
+      </c>
+      <c r="B260" s="5">
+        <v>11</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D260" s="5">
+        <v>59</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F260" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="6">
+        <v>260</v>
+      </c>
+      <c r="B261" s="5">
+        <v>11</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D261" s="5">
+        <v>60</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F261" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" s="6">
+        <v>261</v>
+      </c>
+      <c r="B262" s="5">
+        <v>11</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D262" s="5">
+        <v>61</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F262" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="6">
+        <v>262</v>
+      </c>
+      <c r="B263" s="5">
+        <v>11</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D263" s="5">
+        <v>62</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F263" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="6">
+        <v>263</v>
+      </c>
+      <c r="B264" s="5">
+        <v>11</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D264" s="5">
+        <v>63</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F264" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" s="6">
+        <v>264</v>
+      </c>
+      <c r="B265" s="5">
+        <v>11</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D265" s="5">
+        <v>64</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F265" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" s="6">
+        <v>265</v>
+      </c>
+      <c r="B266" s="5">
+        <v>11</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D266" s="5">
+        <v>65</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F266" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" s="6">
+        <v>266</v>
+      </c>
+      <c r="B267" s="5">
+        <v>11</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D267" s="5">
+        <v>66</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F267" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" s="6">
+        <v>267</v>
+      </c>
+      <c r="B268" s="5">
+        <v>11</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D268" s="5">
+        <v>67</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F268" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="6">
+        <v>268</v>
+      </c>
+      <c r="B269" s="5">
+        <v>11</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D269" s="5">
+        <v>68</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F269" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" s="6">
+        <v>269</v>
+      </c>
+      <c r="B270" s="5">
+        <v>11</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D270" s="5">
+        <v>69</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F270" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" s="6">
+        <v>270</v>
+      </c>
+      <c r="B271" s="5">
+        <v>11</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D271" s="5">
+        <v>70</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F271" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" s="6">
+        <v>271</v>
+      </c>
+      <c r="B272" s="5">
+        <v>11</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D272" s="5">
+        <v>71</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F272" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="6">
+        <v>272</v>
+      </c>
+      <c r="B273" s="5">
+        <v>11</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D273" s="5">
+        <v>72</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F273" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="6">
+        <v>273</v>
+      </c>
+      <c r="B274" s="5">
+        <v>11</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D274" s="5">
+        <v>73</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F274" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="6">
+        <v>274</v>
+      </c>
+      <c r="B275" s="5">
+        <v>11</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D275" s="5">
+        <v>74</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F275" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="6">
+        <v>275</v>
+      </c>
+      <c r="B276" s="5">
+        <v>11</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D276" s="5">
+        <v>75</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F276" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" s="6">
+        <v>276</v>
+      </c>
+      <c r="B277" s="5">
+        <v>11</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D277" s="5">
+        <v>76</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F277" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="6">
+        <v>277</v>
+      </c>
+      <c r="B278" s="5">
+        <v>11</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D278" s="5">
+        <v>77</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F278" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="6">
+        <v>278</v>
+      </c>
+      <c r="B279" s="5">
+        <v>11</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D279" s="5">
+        <v>78</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F279" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" s="6">
+        <v>279</v>
+      </c>
+      <c r="B280" s="5">
+        <v>11</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D280" s="5">
+        <v>79</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F280" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="6">
+        <v>280</v>
+      </c>
+      <c r="B281" s="5">
+        <v>11</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D281" s="5">
+        <v>80</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F281" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" s="6">
+        <v>281</v>
+      </c>
+      <c r="B282" s="5">
+        <v>11</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D282" s="5">
+        <v>81</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F282" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="6">
+        <v>282</v>
+      </c>
+      <c r="B283" s="5">
+        <v>11</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D283" s="5">
+        <v>82</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F283" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" s="6">
+        <v>283</v>
+      </c>
+      <c r="B284" s="5">
+        <v>11</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D284" s="5">
+        <v>83</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F284" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="6">
+        <v>284</v>
+      </c>
+      <c r="B285" s="5">
+        <v>11</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D285" s="5">
+        <v>84</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F285" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" s="6">
+        <v>285</v>
+      </c>
+      <c r="B286" s="5">
+        <v>11</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D286" s="5">
+        <v>85</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F286" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="6">
+        <v>286</v>
+      </c>
+      <c r="B287" s="5">
+        <v>11</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D287" s="5">
+        <v>86</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F287" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="6">
+        <v>287</v>
+      </c>
+      <c r="B288" s="5">
+        <v>11</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D288" s="5">
+        <v>87</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F288" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="6">
+        <v>288</v>
+      </c>
+      <c r="B289" s="5">
+        <v>11</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D289" s="5">
+        <v>88</v>
+      </c>
+      <c r="E289" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F289" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" s="6">
+        <v>289</v>
+      </c>
+      <c r="B290" s="5">
+        <v>11</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D290" s="5">
+        <v>89</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F290" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="6">
+        <v>290</v>
+      </c>
+      <c r="B291" s="5">
+        <v>11</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D291" s="5">
+        <v>90</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F291" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="6">
+        <v>291</v>
+      </c>
+      <c r="B292" s="5">
+        <v>11</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D292" s="5">
+        <v>91</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F292" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" s="6">
+        <v>292</v>
+      </c>
+      <c r="B293" s="5">
+        <v>11</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D293" s="5">
+        <v>92</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F293" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="6">
+        <v>293</v>
+      </c>
+      <c r="B294" s="5">
+        <v>11</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D294" s="5">
+        <v>93</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F294" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" s="6">
+        <v>294</v>
+      </c>
+      <c r="B295" s="5">
+        <v>11</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D295" s="5">
+        <v>94</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F295" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" s="6">
+        <v>295</v>
+      </c>
+      <c r="B296" s="5">
+        <v>11</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D296" s="5">
+        <v>95</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F296" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" s="6">
+        <v>296</v>
+      </c>
+      <c r="B297" s="5">
+        <v>11</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D297" s="5">
+        <v>96</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F297" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" s="6">
+        <v>297</v>
+      </c>
+      <c r="B298" s="5">
+        <v>11</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D298" s="5">
+        <v>97</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F298" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="6">
+        <v>298</v>
+      </c>
+      <c r="B299" s="5">
+        <v>11</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D299" s="5">
+        <v>98</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F299" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" s="6">
+        <v>299</v>
+      </c>
+      <c r="B300" s="5">
+        <v>11</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D300" s="5">
+        <v>99</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F300" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" s="6">
+        <v>300</v>
+      </c>
+      <c r="B301" s="5">
+        <v>11</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D301" s="5">
+        <v>100</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F301" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" s="6">
+        <v>301</v>
+      </c>
+      <c r="B302" s="5">
+        <v>10</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D302" s="5">
+        <v>1</v>
+      </c>
+      <c r="E302" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F302" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" s="6">
+        <v>302</v>
+      </c>
+      <c r="B303" s="5">
+        <v>10</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D303" s="5">
+        <v>2</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F303" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" s="6">
+        <v>303</v>
+      </c>
+      <c r="B304" s="5">
+        <v>10</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D304" s="5">
+        <v>3</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F304" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" s="6">
+        <v>304</v>
+      </c>
+      <c r="B305" s="5">
+        <v>10</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D305" s="5">
+        <v>4</v>
+      </c>
+      <c r="E305" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F305" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" s="6">
+        <v>305</v>
+      </c>
+      <c r="B306" s="5">
+        <v>10</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D306" s="5">
+        <v>5</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F306" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" s="6">
+        <v>306</v>
+      </c>
+      <c r="B307" s="5">
+        <v>10</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D307" s="5">
+        <v>6</v>
+      </c>
+      <c r="E307" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F307" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" s="6">
+        <v>307</v>
+      </c>
+      <c r="B308" s="5">
+        <v>10</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D308" s="5">
+        <v>7</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F308" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" s="6">
+        <v>308</v>
+      </c>
+      <c r="B309" s="5">
+        <v>10</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D309" s="5">
+        <v>8</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F309" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" s="6">
+        <v>309</v>
+      </c>
+      <c r="B310" s="5">
+        <v>10</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D310" s="5">
+        <v>9</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F310" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" s="6">
+        <v>310</v>
+      </c>
+      <c r="B311" s="5">
+        <v>10</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D311" s="5">
+        <v>10</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F311" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" s="6">
+        <v>311</v>
+      </c>
+      <c r="B312" s="5">
+        <v>10</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D312" s="5">
+        <v>11</v>
+      </c>
+      <c r="E312" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F312" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" s="6">
+        <v>312</v>
+      </c>
+      <c r="B313" s="5">
+        <v>10</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D313" s="5">
+        <v>12</v>
+      </c>
+      <c r="E313" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F313" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" s="6">
+        <v>313</v>
+      </c>
+      <c r="B314" s="5">
+        <v>10</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D314" s="5">
+        <v>13</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F314" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" s="6">
+        <v>314</v>
+      </c>
+      <c r="B315" s="5">
+        <v>10</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D315" s="5">
+        <v>14</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F315" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" s="6">
+        <v>315</v>
+      </c>
+      <c r="B316" s="5">
+        <v>10</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D316" s="5">
+        <v>15</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F316" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" s="6">
+        <v>316</v>
+      </c>
+      <c r="B317" s="5">
+        <v>10</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D317" s="5">
+        <v>16</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F317" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" s="6">
+        <v>317</v>
+      </c>
+      <c r="B318" s="5">
+        <v>10</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D318" s="5">
+        <v>17</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F318" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" s="6">
+        <v>318</v>
+      </c>
+      <c r="B319" s="5">
+        <v>10</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D319" s="5">
+        <v>18</v>
+      </c>
+      <c r="E319" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F319" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" s="6">
+        <v>319</v>
+      </c>
+      <c r="B320" s="5">
+        <v>10</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D320" s="5">
+        <v>19</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F320" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" s="6">
+        <v>320</v>
+      </c>
+      <c r="B321" s="5">
+        <v>10</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D321" s="5">
+        <v>20</v>
+      </c>
+      <c r="E321" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F321" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" s="6">
+        <v>321</v>
+      </c>
+      <c r="B322" s="5">
+        <v>10</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D322" s="5">
+        <v>21</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F322" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" s="6">
+        <v>322</v>
+      </c>
+      <c r="B323" s="5">
+        <v>10</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D323" s="5">
+        <v>22</v>
+      </c>
+      <c r="E323" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F323" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" s="6">
+        <v>323</v>
+      </c>
+      <c r="B324" s="5">
+        <v>10</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D324" s="5">
+        <v>23</v>
+      </c>
+      <c r="E324" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F324" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" s="6">
+        <v>324</v>
+      </c>
+      <c r="B325" s="5">
+        <v>10</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D325" s="5">
+        <v>24</v>
+      </c>
+      <c r="E325" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F325" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" s="6">
+        <v>325</v>
+      </c>
+      <c r="B326" s="5">
+        <v>10</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D326" s="5">
+        <v>25</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F326" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" s="6">
+        <v>326</v>
+      </c>
+      <c r="B327" s="5">
+        <v>10</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D327" s="5">
+        <v>26</v>
+      </c>
+      <c r="E327" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F327" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" s="6">
+        <v>327</v>
+      </c>
+      <c r="B328" s="5">
+        <v>10</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D328" s="5">
+        <v>27</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F328" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" s="6">
+        <v>328</v>
+      </c>
+      <c r="B329" s="5">
+        <v>10</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D329" s="5">
+        <v>28</v>
+      </c>
+      <c r="E329" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F329" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" s="6">
+        <v>329</v>
+      </c>
+      <c r="B330" s="5">
+        <v>10</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D330" s="5">
+        <v>29</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F330" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" s="6">
+        <v>330</v>
+      </c>
+      <c r="B331" s="5">
+        <v>10</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D331" s="5">
+        <v>30</v>
+      </c>
+      <c r="E331" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F331" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" s="6">
+        <v>331</v>
+      </c>
+      <c r="B332" s="5">
+        <v>10</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D332" s="5">
+        <v>31</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F332" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" s="6">
+        <v>332</v>
+      </c>
+      <c r="B333" s="5">
+        <v>10</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D333" s="5">
+        <v>32</v>
+      </c>
+      <c r="E333" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F333" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" s="6">
+        <v>333</v>
+      </c>
+      <c r="B334" s="5">
+        <v>10</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D334" s="5">
+        <v>33</v>
+      </c>
+      <c r="E334" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F334" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" s="6">
+        <v>334</v>
+      </c>
+      <c r="B335" s="5">
+        <v>10</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D335" s="5">
+        <v>34</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F335" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" s="6">
+        <v>335</v>
+      </c>
+      <c r="B336" s="5">
+        <v>10</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D336" s="5">
+        <v>35</v>
+      </c>
+      <c r="E336" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F336" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" s="6">
+        <v>336</v>
+      </c>
+      <c r="B337" s="5">
+        <v>10</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D337" s="5">
+        <v>36</v>
+      </c>
+      <c r="E337" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F337" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" s="6">
+        <v>337</v>
+      </c>
+      <c r="B338" s="5">
+        <v>10</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D338" s="5">
+        <v>37</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F338" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" s="6">
+        <v>338</v>
+      </c>
+      <c r="B339" s="5">
+        <v>10</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D339" s="5">
+        <v>38</v>
+      </c>
+      <c r="E339" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F339" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" s="6">
+        <v>339</v>
+      </c>
+      <c r="B340" s="5">
+        <v>10</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D340" s="5">
+        <v>39</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F340" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341" s="6">
+        <v>340</v>
+      </c>
+      <c r="B341" s="5">
+        <v>10</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D341" s="5">
+        <v>40</v>
+      </c>
+      <c r="E341" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F341" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" s="6">
+        <v>341</v>
+      </c>
+      <c r="B342" s="5">
+        <v>10</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D342" s="5">
+        <v>41</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F342" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" s="6">
+        <v>342</v>
+      </c>
+      <c r="B343" s="5">
+        <v>10</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D343" s="5">
+        <v>42</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F343" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344" s="6">
+        <v>343</v>
+      </c>
+      <c r="B344" s="5">
+        <v>10</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D344" s="5">
+        <v>43</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F344" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" s="6">
+        <v>344</v>
+      </c>
+      <c r="B345" s="5">
+        <v>10</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D345" s="5">
+        <v>44</v>
+      </c>
+      <c r="E345" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F345" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" s="6">
+        <v>345</v>
+      </c>
+      <c r="B346" s="5">
+        <v>10</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D346" s="5">
+        <v>45</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F346" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" s="6">
+        <v>346</v>
+      </c>
+      <c r="B347" s="5">
+        <v>10</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D347" s="5">
+        <v>46</v>
+      </c>
+      <c r="E347" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F347" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" s="6">
+        <v>347</v>
+      </c>
+      <c r="B348" s="5">
+        <v>10</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D348" s="5">
+        <v>47</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F348" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" s="6">
+        <v>348</v>
+      </c>
+      <c r="B349" s="5">
+        <v>10</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D349" s="5">
+        <v>48</v>
+      </c>
+      <c r="E349" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F349" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" s="6">
+        <v>349</v>
+      </c>
+      <c r="B350" s="5">
+        <v>10</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D350" s="5">
+        <v>49</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F350" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" s="6">
+        <v>350</v>
+      </c>
+      <c r="B351" s="5">
+        <v>10</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D351" s="5">
+        <v>50</v>
+      </c>
+      <c r="E351" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F351" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" s="6">
+        <v>351</v>
+      </c>
+      <c r="B352" s="5">
+        <v>10</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D352" s="5">
+        <v>51</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F352" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" s="6">
+        <v>352</v>
+      </c>
+      <c r="B353" s="5">
+        <v>10</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D353" s="5">
+        <v>52</v>
+      </c>
+      <c r="E353" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F353" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" s="6">
+        <v>353</v>
+      </c>
+      <c r="B354" s="5">
+        <v>10</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D354" s="5">
+        <v>53</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F354" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" s="6">
+        <v>354</v>
+      </c>
+      <c r="B355" s="5">
+        <v>10</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D355" s="5">
+        <v>54</v>
+      </c>
+      <c r="E355" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F355" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" s="6">
+        <v>355</v>
+      </c>
+      <c r="B356" s="5">
+        <v>10</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D356" s="5">
+        <v>55</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F356" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" s="6">
+        <v>356</v>
+      </c>
+      <c r="B357" s="5">
+        <v>10</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D357" s="5">
+        <v>56</v>
+      </c>
+      <c r="E357" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F357" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="6">
+        <v>357</v>
+      </c>
+      <c r="B358" s="5">
+        <v>10</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D358" s="5">
+        <v>57</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F358" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" s="6">
+        <v>358</v>
+      </c>
+      <c r="B359" s="5">
+        <v>10</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D359" s="5">
+        <v>58</v>
+      </c>
+      <c r="E359" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F359" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" s="6">
+        <v>359</v>
+      </c>
+      <c r="B360" s="5">
+        <v>10</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D360" s="5">
+        <v>59</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F360" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361" s="6">
+        <v>360</v>
+      </c>
+      <c r="B361" s="5">
+        <v>10</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D361" s="5">
+        <v>60</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F361" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" s="6">
+        <v>361</v>
+      </c>
+      <c r="B362" s="5">
+        <v>10</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D362" s="5">
+        <v>61</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F362" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" s="6">
+        <v>362</v>
+      </c>
+      <c r="B363" s="5">
+        <v>10</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D363" s="5">
+        <v>62</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F363" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" s="6">
+        <v>363</v>
+      </c>
+      <c r="B364" s="5">
+        <v>10</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D364" s="5">
+        <v>63</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F364" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" s="6">
+        <v>364</v>
+      </c>
+      <c r="B365" s="5">
+        <v>10</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D365" s="5">
+        <v>64</v>
+      </c>
+      <c r="E365" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F365" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" s="6">
+        <v>365</v>
+      </c>
+      <c r="B366" s="5">
+        <v>10</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D366" s="5">
+        <v>65</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F366" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" s="6">
+        <v>366</v>
+      </c>
+      <c r="B367" s="5">
+        <v>10</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D367" s="5">
+        <v>66</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F367" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" s="6">
+        <v>367</v>
+      </c>
+      <c r="B368" s="5">
+        <v>10</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D368" s="5">
+        <v>67</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F368" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" s="6">
+        <v>368</v>
+      </c>
+      <c r="B369" s="5">
+        <v>10</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D369" s="5">
+        <v>68</v>
+      </c>
+      <c r="E369" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F369" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" s="6">
+        <v>369</v>
+      </c>
+      <c r="B370" s="5">
+        <v>10</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D370" s="5">
+        <v>69</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F370" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" s="6">
+        <v>370</v>
+      </c>
+      <c r="B371" s="5">
+        <v>10</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D371" s="5">
+        <v>70</v>
+      </c>
+      <c r="E371" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F371" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372" s="6">
+        <v>371</v>
+      </c>
+      <c r="B372" s="5">
+        <v>10</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D372" s="5">
+        <v>71</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F372" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A373" s="6">
+        <v>372</v>
+      </c>
+      <c r="B373" s="5">
+        <v>10</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D373" s="5">
+        <v>72</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F373" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" s="6">
+        <v>373</v>
+      </c>
+      <c r="B374" s="5">
+        <v>10</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D374" s="5">
+        <v>73</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F374" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A375" s="6">
+        <v>374</v>
+      </c>
+      <c r="B375" s="5">
+        <v>10</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D375" s="5">
+        <v>74</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F375" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A376" s="6">
+        <v>375</v>
+      </c>
+      <c r="B376" s="5">
+        <v>10</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D376" s="5">
+        <v>75</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F376" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A377" s="6">
+        <v>376</v>
+      </c>
+      <c r="B377" s="5">
+        <v>10</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D377" s="5">
+        <v>76</v>
+      </c>
+      <c r="E377" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F377" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A378" s="6">
+        <v>377</v>
+      </c>
+      <c r="B378" s="5">
+        <v>10</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D378" s="5">
+        <v>77</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F378" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A379" s="6">
+        <v>378</v>
+      </c>
+      <c r="B379" s="5">
+        <v>10</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D379" s="5">
+        <v>78</v>
+      </c>
+      <c r="E379" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F379" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" s="6">
+        <v>379</v>
+      </c>
+      <c r="B380" s="5">
+        <v>10</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D380" s="5">
+        <v>79</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F380" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" s="6">
+        <v>380</v>
+      </c>
+      <c r="B381" s="5">
+        <v>10</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D381" s="5">
+        <v>80</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F381" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A382" s="6">
+        <v>381</v>
+      </c>
+      <c r="B382" s="5">
+        <v>10</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D382" s="5">
+        <v>81</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F382" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" s="6">
+        <v>382</v>
+      </c>
+      <c r="B383" s="5">
+        <v>10</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D383" s="5">
+        <v>82</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F383" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" s="6">
+        <v>383</v>
+      </c>
+      <c r="B384" s="5">
+        <v>10</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D384" s="5">
+        <v>83</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F384" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A385" s="6">
+        <v>384</v>
+      </c>
+      <c r="B385" s="5">
+        <v>10</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D385" s="5">
+        <v>84</v>
+      </c>
+      <c r="E385" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F385" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A386" s="6">
+        <v>385</v>
+      </c>
+      <c r="B386" s="5">
+        <v>10</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D386" s="5">
+        <v>85</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F386" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387" s="6">
+        <v>386</v>
+      </c>
+      <c r="B387" s="5">
+        <v>10</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D387" s="5">
+        <v>86</v>
+      </c>
+      <c r="E387" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F387" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" s="6">
+        <v>387</v>
+      </c>
+      <c r="B388" s="5">
+        <v>10</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D388" s="5">
+        <v>87</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F388" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" s="6">
+        <v>388</v>
+      </c>
+      <c r="B389" s="5">
+        <v>10</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D389" s="5">
+        <v>88</v>
+      </c>
+      <c r="E389" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F389" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" s="6">
+        <v>389</v>
+      </c>
+      <c r="B390" s="5">
+        <v>10</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D390" s="5">
+        <v>89</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F390" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A391" s="6">
+        <v>390</v>
+      </c>
+      <c r="B391" s="5">
+        <v>10</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D391" s="5">
+        <v>90</v>
+      </c>
+      <c r="E391" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F391" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392" s="6">
+        <v>391</v>
+      </c>
+      <c r="B392" s="5">
+        <v>10</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D392" s="5">
+        <v>91</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F392" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A393" s="6">
+        <v>392</v>
+      </c>
+      <c r="B393" s="5">
+        <v>10</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D393" s="5">
+        <v>92</v>
+      </c>
+      <c r="E393" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F393" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" s="6">
+        <v>393</v>
+      </c>
+      <c r="B394" s="5">
+        <v>10</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D394" s="5">
+        <v>93</v>
+      </c>
+      <c r="E394" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F394" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" s="6">
+        <v>394</v>
+      </c>
+      <c r="B395" s="5">
+        <v>10</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D395" s="5">
+        <v>94</v>
+      </c>
+      <c r="E395" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F395" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" s="6">
+        <v>395</v>
+      </c>
+      <c r="B396" s="5">
+        <v>10</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D396" s="5">
+        <v>95</v>
+      </c>
+      <c r="E396" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F396" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A397" s="6">
+        <v>396</v>
+      </c>
+      <c r="B397" s="5">
+        <v>10</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D397" s="5">
+        <v>96</v>
+      </c>
+      <c r="E397" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F397" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A398" s="6">
+        <v>397</v>
+      </c>
+      <c r="B398" s="5">
+        <v>10</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D398" s="5">
+        <v>97</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F398" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A399" s="6">
+        <v>398</v>
+      </c>
+      <c r="B399" s="5">
+        <v>10</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D399" s="5">
+        <v>98</v>
+      </c>
+      <c r="E399" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F399" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A400" s="6">
+        <v>399</v>
+      </c>
+      <c r="B400" s="5">
+        <v>10</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D400" s="5">
+        <v>99</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F400" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" s="6">
+        <v>400</v>
+      </c>
+      <c r="B401" s="5">
+        <v>10</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D401" s="5">
+        <v>100</v>
+      </c>
+      <c r="E401" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F401" s="5">
         <v>2</v>
       </c>
     </row>
